--- a/abs_results/median-processing-time-all-functions-single-run.xlsx
+++ b/abs_results/median-processing-time-all-functions-single-run.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jreillai\Desktop\Cloud function ping job\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\FAAS\abs_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,15 +15,12 @@
     <sheet name="median-processing-time-recur" sheetId="1" r:id="rId1"/>
     <sheet name="median processing-time-linear" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Date</t>
-  </si>
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -37,31 +34,34 @@
     <t>Linear function, Azure</t>
   </si>
   <si>
-    <t>512 MB recursive function, AWS</t>
+    <t>Average</t>
   </si>
   <si>
-    <t>256 MB recursive function, AWS</t>
+    <t>AWS 2 GB recursive function</t>
   </si>
   <si>
-    <t>512 MB recursive function, Google</t>
+    <t>AWS 512 MB recursive function</t>
   </si>
   <si>
-    <t>256 MB recursive function, Google</t>
+    <t>AWS 256 MB recursive function</t>
   </si>
   <si>
-    <t>2 GB recursive function, Google</t>
+    <t>AWS 1 GB recursive function</t>
   </si>
   <si>
-    <t>1 GB recursive function, Google</t>
+    <t>Google 2 GB recursive function</t>
   </si>
   <si>
-    <t>1 GB recursive function, AWS</t>
+    <t>Google 1 GB recursive function</t>
   </si>
   <si>
-    <t>2 GB recursive function, AWS</t>
+    <t>Google 512 MB recursive function</t>
   </si>
   <si>
-    <t>Recursive function, Azure</t>
+    <t>Google 256 MB recursive function</t>
+  </si>
+  <si>
+    <t>Azure Recursive function</t>
   </si>
 </sst>
 </file>
@@ -548,9 +548,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -693,17 +695,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'median-processing-time-recur'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1 GB recursive function, AWS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -903,21 +894,33 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'median-processing-time-recur'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'median-processing-time-recur'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2 GB recursive function, AWS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1117,21 +1120,33 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'median-processing-time-recur'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'median-processing-time-recur'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>512 MB recursive function, AWS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1331,21 +1346,33 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'median-processing-time-recur'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'median-processing-time-recur'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>256 MB recursive function, AWS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1545,6 +1572,29 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'median-processing-time-recur'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1555,11 +1605,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="280584888"/>
-        <c:axId val="280585280"/>
+        <c:axId val="466027712"/>
+        <c:axId val="466030064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="280584888"/>
+        <c:axId val="466027712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1602,7 +1652,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280585280"/>
+        <c:crossAx val="466030064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1610,7 +1660,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="280585280"/>
+        <c:axId val="466030064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1661,7 +1711,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280584888"/>
+        <c:crossAx val="466027712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1826,17 +1876,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'median-processing-time-recur'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1 GB recursive function, Google</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2036,21 +2075,33 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'median-processing-time-recur'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'median-processing-time-recur'!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2 GB recursive function, Google</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2250,21 +2301,33 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'median-processing-time-recur'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'median-processing-time-recur'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>512 MB recursive function, Google</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2464,21 +2527,33 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'median-processing-time-recur'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'median-processing-time-recur'!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>256 MB recursive function, Google</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2678,6 +2753,29 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'median-processing-time-recur'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2688,11 +2786,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="285606512"/>
-        <c:axId val="280586064"/>
+        <c:axId val="466030456"/>
+        <c:axId val="310107048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="285606512"/>
+        <c:axId val="466030456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2735,7 +2833,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280586064"/>
+        <c:crossAx val="310107048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2743,7 +2841,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="280586064"/>
+        <c:axId val="310107048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2794,7 +2892,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285606512"/>
+        <c:crossAx val="466030456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2959,17 +3057,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'median-processing-time-recur'!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Recursive function, Azure</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -3169,6 +3256,29 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'median-processing-time-recur'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3179,11 +3289,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="292964816"/>
-        <c:axId val="292965208"/>
+        <c:axId val="397866560"/>
+        <c:axId val="397867736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="292964816"/>
+        <c:axId val="397866560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3226,7 +3336,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292965208"/>
+        <c:crossAx val="397867736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3234,7 +3344,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="292965208"/>
+        <c:axId val="397867736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3285,7 +3395,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292964816"/>
+        <c:crossAx val="397866560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4066,11 +4176,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="290699832"/>
-        <c:axId val="290700224"/>
+        <c:axId val="397864208"/>
+        <c:axId val="397863816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="290699832"/>
+        <c:axId val="397864208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4113,7 +4223,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="290700224"/>
+        <c:crossAx val="397863816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4121,7 +4231,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="290700224"/>
+        <c:axId val="397863816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4172,7 +4282,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="290699832"/>
+        <c:crossAx val="397864208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6482,15 +6592,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>471486</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:colOff>576261</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2539999</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>2644774</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6542,15 +6652,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>328611</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:colOff>452436</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2498724</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>2622549</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6870,10 +6980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6887,32 +6997,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
       </c>
       <c r="G1" t="s">
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -7814,7 +7921,55 @@
         <v>13219</v>
       </c>
     </row>
+    <row r="30" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="3">
+        <f>AVERAGE(B2:B29)</f>
+        <v>4265.6428571428569</v>
+      </c>
+      <c r="C30" s="3">
+        <f>AVERAGE(C2:C29)</f>
+        <v>2620.5357142857142</v>
+      </c>
+      <c r="D30" s="3">
+        <f>AVERAGE(D2:D29)</f>
+        <v>8291.6785714285706</v>
+      </c>
+      <c r="E30" s="3">
+        <f>AVERAGE(E2:E29)</f>
+        <v>16083.428571428571</v>
+      </c>
+      <c r="F30" s="3">
+        <f>AVERAGE(F2:F29)</f>
+        <v>6530.6785714285716</v>
+      </c>
+      <c r="G30" s="3">
+        <f>AVERAGE(G2:G29)</f>
+        <v>4999.4285714285716</v>
+      </c>
+      <c r="H30" s="3">
+        <f>AVERAGE(H2:H29)</f>
+        <v>5169.5357142857147</v>
+      </c>
+      <c r="I30" s="3">
+        <f>AVERAGE(I2:I29)</f>
+        <v>6013.9285714285716</v>
+      </c>
+      <c r="J30" s="3">
+        <f>AVERAGE(J2:J29)</f>
+        <v>14198.535714285714</v>
+      </c>
+    </row>
+    <row r="41" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+    </row>
   </sheetData>
+  <sortState ref="H42:I50">
+    <sortCondition ref="I50"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -7826,7 +7981,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7839,16 +7994,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/abs_results/median-processing-time-all-functions-single-run.xlsx
+++ b/abs_results/median-processing-time-all-functions-single-run.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="median-processing-time-recur" sheetId="1" r:id="rId1"/>
     <sheet name="median processing-time-linear" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1605,11 +1606,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="466027712"/>
-        <c:axId val="466030064"/>
+        <c:axId val="174067304"/>
+        <c:axId val="173025096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="466027712"/>
+        <c:axId val="174067304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1652,7 +1653,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466030064"/>
+        <c:crossAx val="173025096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1660,7 +1661,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="466030064"/>
+        <c:axId val="173025096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1711,7 +1712,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466027712"/>
+        <c:crossAx val="174067304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2786,11 +2787,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="466030456"/>
-        <c:axId val="310107048"/>
+        <c:axId val="173542736"/>
+        <c:axId val="173525024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="466030456"/>
+        <c:axId val="173542736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2833,7 +2834,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310107048"/>
+        <c:crossAx val="173525024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2841,7 +2842,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="310107048"/>
+        <c:axId val="173525024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2892,7 +2893,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466030456"/>
+        <c:crossAx val="173542736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3018,7 +3019,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22738870177783188"/>
+          <c:y val="0.2338259199849067"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3289,11 +3297,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="397866560"/>
-        <c:axId val="397867736"/>
+        <c:axId val="172658784"/>
+        <c:axId val="173022312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="397866560"/>
+        <c:axId val="172658784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3336,7 +3344,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397867736"/>
+        <c:crossAx val="173022312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3344,7 +3352,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="397867736"/>
+        <c:axId val="173022312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3395,7 +3403,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397866560"/>
+        <c:crossAx val="172658784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4176,16 +4184,76 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="397864208"/>
-        <c:axId val="397863816"/>
+        <c:axId val="173756176"/>
+        <c:axId val="172903656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="397864208"/>
+        <c:axId val="173756176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> of invocation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="[$-409]h:mm:ss\ AM/PM;@" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4223,7 +4291,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397863816"/>
+        <c:crossAx val="172903656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4231,7 +4299,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="397863816"/>
+        <c:axId val="172903656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4251,6 +4319,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Duration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4282,7 +4406,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397864208"/>
+        <c:crossAx val="173756176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6621,16 +6745,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2690811</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1098775</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>27894</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1009649</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>84364</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>23132</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6652,15 +6776,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>452436</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:colOff>2207758</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>25173</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2622549</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1343478</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>96611</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6982,8 +7106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7926,39 +8050,39 @@
         <v>4</v>
       </c>
       <c r="B30" s="3">
-        <f>AVERAGE(B2:B29)</f>
+        <f t="shared" ref="B30:J30" si="0">AVERAGE(B2:B29)</f>
         <v>4265.6428571428569</v>
       </c>
       <c r="C30" s="3">
-        <f>AVERAGE(C2:C29)</f>
+        <f t="shared" si="0"/>
         <v>2620.5357142857142</v>
       </c>
       <c r="D30" s="3">
-        <f>AVERAGE(D2:D29)</f>
+        <f t="shared" si="0"/>
         <v>8291.6785714285706</v>
       </c>
       <c r="E30" s="3">
-        <f>AVERAGE(E2:E29)</f>
+        <f t="shared" si="0"/>
         <v>16083.428571428571</v>
       </c>
       <c r="F30" s="3">
-        <f>AVERAGE(F2:F29)</f>
+        <f t="shared" si="0"/>
         <v>6530.6785714285716</v>
       </c>
       <c r="G30" s="3">
-        <f>AVERAGE(G2:G29)</f>
+        <f t="shared" si="0"/>
         <v>4999.4285714285716</v>
       </c>
       <c r="H30" s="3">
-        <f>AVERAGE(H2:H29)</f>
+        <f t="shared" si="0"/>
         <v>5169.5357142857147</v>
       </c>
       <c r="I30" s="3">
-        <f>AVERAGE(I2:I29)</f>
+        <f t="shared" si="0"/>
         <v>6013.9285714285716</v>
       </c>
       <c r="J30" s="3">
-        <f>AVERAGE(J2:J29)</f>
+        <f t="shared" si="0"/>
         <v>14198.535714285714</v>
       </c>
     </row>
@@ -7980,8 +8104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
